--- a/data/pca/factorExposure/factorExposure_2009-08-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-08-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01732120130324801</v>
+        <v>0.01725498643946734</v>
       </c>
       <c r="C2">
-        <v>-0.001721279399273071</v>
+        <v>0.0009893135848118991</v>
       </c>
       <c r="D2">
-        <v>-0.005926208336564299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009369448840021603</v>
+      </c>
+      <c r="E2">
+        <v>0.001787261961230123</v>
+      </c>
+      <c r="F2">
+        <v>0.01440844403571801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09394549164165046</v>
+        <v>0.0927994196655291</v>
       </c>
       <c r="C4">
-        <v>-0.02087829893182375</v>
+        <v>0.01456799997377788</v>
       </c>
       <c r="D4">
-        <v>-0.06828411451752363</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08378890518129421</v>
+      </c>
+      <c r="E4">
+        <v>0.02818405004726526</v>
+      </c>
+      <c r="F4">
+        <v>-0.03267294338247522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1498109269399784</v>
+        <v>0.1605998976757937</v>
       </c>
       <c r="C6">
-        <v>-0.02798996731564336</v>
+        <v>0.02736612737543193</v>
       </c>
       <c r="D6">
-        <v>0.02758448347534163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02551804018729537</v>
+      </c>
+      <c r="E6">
+        <v>0.008848954906279008</v>
+      </c>
+      <c r="F6">
+        <v>-0.04056524579684914</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06221995545307216</v>
+        <v>0.06285782826913303</v>
       </c>
       <c r="C7">
-        <v>-0.002861278185258157</v>
+        <v>-0.001639651578877711</v>
       </c>
       <c r="D7">
-        <v>-0.04188807616452646</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05256981319956458</v>
+      </c>
+      <c r="E7">
+        <v>0.01184926387434376</v>
+      </c>
+      <c r="F7">
+        <v>-0.04711981336563507</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06331183027257492</v>
+        <v>0.05797002866446189</v>
       </c>
       <c r="C8">
-        <v>0.01059850976780859</v>
+        <v>-0.01301169190702866</v>
       </c>
       <c r="D8">
-        <v>-0.02467207702396523</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03157813034670916</v>
+      </c>
+      <c r="E8">
+        <v>0.01730306894442149</v>
+      </c>
+      <c r="F8">
+        <v>0.02520989806171109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07231600674273074</v>
+        <v>0.07053691906756998</v>
       </c>
       <c r="C9">
-        <v>-0.01712194598790875</v>
+        <v>0.01023162778000535</v>
       </c>
       <c r="D9">
-        <v>-0.06965126508190894</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08682758832091018</v>
+      </c>
+      <c r="E9">
+        <v>0.02365739909001571</v>
+      </c>
+      <c r="F9">
+        <v>-0.04670719044582974</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08425411230104546</v>
+        <v>0.08968387146623642</v>
       </c>
       <c r="C10">
-        <v>-0.013056244637422</v>
+        <v>0.02087676466906229</v>
       </c>
       <c r="D10">
-        <v>0.1650794826450551</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1608951056625608</v>
+      </c>
+      <c r="E10">
+        <v>-0.0311560250262408</v>
+      </c>
+      <c r="F10">
+        <v>0.05716392538596805</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09182009144229181</v>
+        <v>0.08702751114116571</v>
       </c>
       <c r="C11">
-        <v>-0.01797450686256672</v>
+        <v>0.01059741093085855</v>
       </c>
       <c r="D11">
-        <v>-0.09970413471188706</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1175583268283273</v>
+      </c>
+      <c r="E11">
+        <v>0.0461186349704092</v>
+      </c>
+      <c r="F11">
+        <v>-0.02199569789613979</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09740882188551747</v>
+        <v>0.0902100555756061</v>
       </c>
       <c r="C12">
-        <v>-0.01580416131872396</v>
+        <v>0.007882249465766192</v>
       </c>
       <c r="D12">
-        <v>-0.1036145027217506</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1320314402859243</v>
+      </c>
+      <c r="E12">
+        <v>0.04526361437501405</v>
+      </c>
+      <c r="F12">
+        <v>-0.03078779220112677</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04413725891511766</v>
+        <v>0.04250243185974194</v>
       </c>
       <c r="C13">
-        <v>-0.005879182926966005</v>
+        <v>0.002552708969705168</v>
       </c>
       <c r="D13">
-        <v>-0.03084336653653416</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05299697517175839</v>
+      </c>
+      <c r="E13">
+        <v>-0.003686252620246938</v>
+      </c>
+      <c r="F13">
+        <v>-0.001785967414016505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01939128733293393</v>
+        <v>0.02376168118820419</v>
       </c>
       <c r="C14">
-        <v>-0.01514157047643271</v>
+        <v>0.01371496658416271</v>
       </c>
       <c r="D14">
-        <v>-0.02561415103437082</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03284513250218996</v>
+      </c>
+      <c r="E14">
+        <v>0.01823729297208482</v>
+      </c>
+      <c r="F14">
+        <v>-0.01306892866971573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03472457961894616</v>
+        <v>0.03302233373469074</v>
       </c>
       <c r="C15">
-        <v>-0.007871842142513468</v>
+        <v>0.004817746922962923</v>
       </c>
       <c r="D15">
-        <v>-0.03293437373070221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04615412035865309</v>
+      </c>
+      <c r="E15">
+        <v>0.007089916716456567</v>
+      </c>
+      <c r="F15">
+        <v>-0.02620917639905107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07689697998111601</v>
+        <v>0.07259465143208949</v>
       </c>
       <c r="C16">
-        <v>-0.008675229990559322</v>
+        <v>0.001105506744202283</v>
       </c>
       <c r="D16">
-        <v>-0.1016452444955802</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1284504939756548</v>
+      </c>
+      <c r="E16">
+        <v>0.06036249048359402</v>
+      </c>
+      <c r="F16">
+        <v>-0.02668487853803601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0004440630898079991</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0002311912607654848</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001296671867341139</v>
+      </c>
+      <c r="E17">
+        <v>0.001209640449099541</v>
+      </c>
+      <c r="F17">
+        <v>0.002349201834548606</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01788540451244219</v>
+        <v>0.03818050017669117</v>
       </c>
       <c r="C18">
-        <v>0.003180581058426215</v>
+        <v>-0.002892406661193723</v>
       </c>
       <c r="D18">
-        <v>-0.02857415154806746</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01543139031464598</v>
+      </c>
+      <c r="E18">
+        <v>-0.007968451535236993</v>
+      </c>
+      <c r="F18">
+        <v>0.008801956274800963</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06586759964352562</v>
+        <v>0.06260185369536843</v>
       </c>
       <c r="C20">
-        <v>-0.006778464461955238</v>
+        <v>0.0004645349681229682</v>
       </c>
       <c r="D20">
-        <v>-0.05468880872789408</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07849398028082268</v>
+      </c>
+      <c r="E20">
+        <v>0.05659909609946224</v>
+      </c>
+      <c r="F20">
+        <v>-0.0301413071253324</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04013573655385332</v>
+        <v>0.04127313782113722</v>
       </c>
       <c r="C21">
-        <v>-0.009975074036219524</v>
+        <v>0.006346097189540494</v>
       </c>
       <c r="D21">
-        <v>-0.03182500215507757</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03848966648316123</v>
+      </c>
+      <c r="E21">
+        <v>-0.0006410558909427019</v>
+      </c>
+      <c r="F21">
+        <v>0.02381910027169383</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04214374312077755</v>
+        <v>0.04455841128586828</v>
       </c>
       <c r="C22">
-        <v>-0.00147093382036865</v>
+        <v>0.001215681346907804</v>
       </c>
       <c r="D22">
-        <v>0.003782825430336636</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.007346882754377763</v>
+      </c>
+      <c r="E22">
+        <v>0.03957314668130005</v>
+      </c>
+      <c r="F22">
+        <v>0.03627955791949868</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04210696893526372</v>
+        <v>0.04453438871043794</v>
       </c>
       <c r="C23">
-        <v>-0.001460930087443184</v>
+        <v>0.00120707258795393</v>
       </c>
       <c r="D23">
-        <v>0.003761488119372182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.007361902415829459</v>
+      </c>
+      <c r="E23">
+        <v>0.03975606725544038</v>
+      </c>
+      <c r="F23">
+        <v>0.03623975765702487</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08345491523707596</v>
+        <v>0.0787814006254805</v>
       </c>
       <c r="C24">
-        <v>-0.008949918885590614</v>
+        <v>0.001804376483017487</v>
       </c>
       <c r="D24">
-        <v>-0.1060489639204812</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1205763223050107</v>
+      </c>
+      <c r="E24">
+        <v>0.0483803885787095</v>
+      </c>
+      <c r="F24">
+        <v>-0.02888983489322473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.0883875400996383</v>
+        <v>0.08379781056086699</v>
       </c>
       <c r="C25">
-        <v>-0.01146200749064209</v>
+        <v>0.004385049656776774</v>
       </c>
       <c r="D25">
-        <v>-0.09244095419675218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1099077463060412</v>
+      </c>
+      <c r="E25">
+        <v>0.03185482892839283</v>
+      </c>
+      <c r="F25">
+        <v>-0.02555758871301218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05917293095769453</v>
+        <v>0.05909507905144439</v>
       </c>
       <c r="C26">
-        <v>-0.01804114092076219</v>
+        <v>0.01454887471289784</v>
       </c>
       <c r="D26">
-        <v>-0.01889645447859995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04260054808706699</v>
+      </c>
+      <c r="E26">
+        <v>0.02956485107867719</v>
+      </c>
+      <c r="F26">
+        <v>0.006288809472293485</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1323404604663706</v>
+        <v>0.1425832450288967</v>
       </c>
       <c r="C28">
-        <v>-0.0117401094825942</v>
+        <v>0.02229356451046838</v>
       </c>
       <c r="D28">
-        <v>0.2731643760403469</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2606345096010319</v>
+      </c>
+      <c r="E28">
+        <v>-0.06835361337189816</v>
+      </c>
+      <c r="F28">
+        <v>-0.002793225006644171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02564474035493311</v>
+        <v>0.02865567953042255</v>
       </c>
       <c r="C29">
-        <v>-0.009793135224962347</v>
+        <v>0.008761180860416056</v>
       </c>
       <c r="D29">
-        <v>-0.02379856264536363</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03072819717398053</v>
+      </c>
+      <c r="E29">
+        <v>0.01324099991086869</v>
+      </c>
+      <c r="F29">
+        <v>0.01328677160319599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06454647062519958</v>
+        <v>0.0586479749363756</v>
       </c>
       <c r="C30">
-        <v>-0.01032273285821896</v>
+        <v>0.00265918695430382</v>
       </c>
       <c r="D30">
-        <v>-0.06297118336799484</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08747618121015042</v>
+      </c>
+      <c r="E30">
+        <v>0.0129248951734844</v>
+      </c>
+      <c r="F30">
+        <v>-0.0790622849519768</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05107409275930697</v>
+        <v>0.05107969994014441</v>
       </c>
       <c r="C31">
-        <v>-0.01719333049681664</v>
+        <v>0.01587474242097932</v>
       </c>
       <c r="D31">
-        <v>-0.02077101519084954</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02477749747979996</v>
+      </c>
+      <c r="E31">
+        <v>0.02900529145650462</v>
+      </c>
+      <c r="F31">
+        <v>0.00139376773466034</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04747964066811917</v>
+        <v>0.05097904681273673</v>
       </c>
       <c r="C32">
-        <v>-0.002213650557393996</v>
+        <v>-0.001717809529132806</v>
       </c>
       <c r="D32">
-        <v>-0.01942369342524464</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03510456504493201</v>
+      </c>
+      <c r="E32">
+        <v>0.03361563557378947</v>
+      </c>
+      <c r="F32">
+        <v>-0.001827065961166598</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09215437988449197</v>
+        <v>0.0888279414373073</v>
       </c>
       <c r="C33">
-        <v>-0.01416358454293681</v>
+        <v>0.006524130962720298</v>
       </c>
       <c r="D33">
-        <v>-0.0799054526041006</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1028077499928632</v>
+      </c>
+      <c r="E33">
+        <v>0.04565971258054196</v>
+      </c>
+      <c r="F33">
+        <v>-0.03897443365117671</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07026282214240911</v>
+        <v>0.06735990951597093</v>
       </c>
       <c r="C34">
-        <v>-0.01621264074581752</v>
+        <v>0.01004822259010678</v>
       </c>
       <c r="D34">
-        <v>-0.08700608464319008</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1093635477596609</v>
+      </c>
+      <c r="E34">
+        <v>0.03446536473204097</v>
+      </c>
+      <c r="F34">
+        <v>-0.03201269200688859</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02399765754829572</v>
+        <v>0.02616532846334095</v>
       </c>
       <c r="C35">
-        <v>-0.002953350028817977</v>
+        <v>0.002726027528946588</v>
       </c>
       <c r="D35">
-        <v>-0.006718332144068114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01176247415611086</v>
+      </c>
+      <c r="E35">
+        <v>0.01256220781385837</v>
+      </c>
+      <c r="F35">
+        <v>-0.001015906793097297</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02619311615807771</v>
+        <v>0.02742951548450832</v>
       </c>
       <c r="C36">
-        <v>-0.007867715602849235</v>
+        <v>0.006802440721812506</v>
       </c>
       <c r="D36">
-        <v>-0.03856455603137299</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03913492739927737</v>
+      </c>
+      <c r="E36">
+        <v>0.01628455052137192</v>
+      </c>
+      <c r="F36">
+        <v>-0.01490617199864517</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0002198935238558032</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0005580756960777935</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.001901331514199036</v>
+      </c>
+      <c r="E37">
+        <v>-0.0007649180359342792</v>
+      </c>
+      <c r="F37">
+        <v>0.002285329015030908</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1150726770253885</v>
+        <v>0.1027576020626026</v>
       </c>
       <c r="C39">
-        <v>-0.02471210895494294</v>
+        <v>0.01578674970030509</v>
       </c>
       <c r="D39">
-        <v>-0.1404317597443712</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1523371006479762</v>
+      </c>
+      <c r="E39">
+        <v>0.05761914028221512</v>
+      </c>
+      <c r="F39">
+        <v>-0.02877459413420627</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.0391869118488101</v>
+        <v>0.04299434011417753</v>
       </c>
       <c r="C40">
-        <v>-0.009555935925390259</v>
+        <v>0.007519706663784194</v>
       </c>
       <c r="D40">
-        <v>-0.01338138003199151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03171011914696472</v>
+      </c>
+      <c r="E40">
+        <v>0.002596273289680357</v>
+      </c>
+      <c r="F40">
+        <v>0.01837557570328865</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02505335848768984</v>
+        <v>0.02771784918958838</v>
       </c>
       <c r="C41">
-        <v>-0.007124405813156778</v>
+        <v>0.006865307013524892</v>
       </c>
       <c r="D41">
-        <v>-0.009941793163960167</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0103206928438332</v>
+      </c>
+      <c r="E41">
+        <v>0.01164352066893677</v>
+      </c>
+      <c r="F41">
+        <v>0.005989788169646616</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04214850771472915</v>
+        <v>0.04080821559257827</v>
       </c>
       <c r="C43">
-        <v>-0.008270065623550194</v>
+        <v>0.007278974993893293</v>
       </c>
       <c r="D43">
-        <v>-0.01538985040824975</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01938524974943104</v>
+      </c>
+      <c r="E43">
+        <v>0.02572691929636477</v>
+      </c>
+      <c r="F43">
+        <v>0.0132438000086581</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.07261156973794554</v>
+        <v>0.07884473154932037</v>
       </c>
       <c r="C44">
-        <v>-0.02652197155943891</v>
+        <v>0.01898504509137679</v>
       </c>
       <c r="D44">
-        <v>-0.08071253285291087</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09629980161779285</v>
+      </c>
+      <c r="E44">
+        <v>0.05991056891556437</v>
+      </c>
+      <c r="F44">
+        <v>-0.1590875390433711</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02179873180164654</v>
+        <v>0.02379859798014822</v>
       </c>
       <c r="C46">
-        <v>-0.003890546935961679</v>
+        <v>0.00341360167146785</v>
       </c>
       <c r="D46">
-        <v>-0.005675191811614804</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01304661408676544</v>
+      </c>
+      <c r="E46">
+        <v>0.02635184944007073</v>
+      </c>
+      <c r="F46">
+        <v>0.006803283570378049</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05295582887189273</v>
+        <v>0.05310366395414155</v>
       </c>
       <c r="C47">
-        <v>-0.004725450899390363</v>
+        <v>0.003979148525056818</v>
       </c>
       <c r="D47">
-        <v>-0.00831976186420858</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01089764860629373</v>
+      </c>
+      <c r="E47">
+        <v>0.02318287322399425</v>
+      </c>
+      <c r="F47">
+        <v>0.03219376938876732</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.0488012155166448</v>
+        <v>0.05015670536031106</v>
       </c>
       <c r="C48">
-        <v>-0.005193563172345652</v>
+        <v>0.002157000656657465</v>
       </c>
       <c r="D48">
-        <v>-0.04129870768637312</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04957204902829656</v>
+      </c>
+      <c r="E48">
+        <v>-0.005648445013245766</v>
+      </c>
+      <c r="F48">
+        <v>-0.008780839043015947</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2026235983270871</v>
+        <v>0.2004513593380571</v>
       </c>
       <c r="C49">
-        <v>-0.02196407893726614</v>
+        <v>0.0193601139383027</v>
       </c>
       <c r="D49">
-        <v>0.01658825097200713</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.006428467818032684</v>
+      </c>
+      <c r="E49">
+        <v>0.03152671132723955</v>
+      </c>
+      <c r="F49">
+        <v>-0.04099309502831809</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04994628666274964</v>
+        <v>0.0515486278267264</v>
       </c>
       <c r="C50">
-        <v>-0.01327514836159453</v>
+        <v>0.01155979336195271</v>
       </c>
       <c r="D50">
-        <v>-0.02084648575150181</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02348081247020774</v>
+      </c>
+      <c r="E50">
+        <v>0.02985359840283751</v>
+      </c>
+      <c r="F50">
+        <v>-0.009713520816098199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1563312643181467</v>
+        <v>0.1498370352623489</v>
       </c>
       <c r="C52">
-        <v>-0.02036704225603168</v>
+        <v>0.0184200515957515</v>
       </c>
       <c r="D52">
-        <v>-0.04920528280899498</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04201778295084792</v>
+      </c>
+      <c r="E52">
+        <v>0.02208297715666638</v>
+      </c>
+      <c r="F52">
+        <v>-0.04409284105013798</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1735620575292536</v>
+        <v>0.1703805764180033</v>
       </c>
       <c r="C53">
-        <v>-0.02020463449224113</v>
+        <v>0.02057218573737283</v>
       </c>
       <c r="D53">
-        <v>-0.01334734396468442</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005823730783977211</v>
+      </c>
+      <c r="E53">
+        <v>0.0299404629332436</v>
+      </c>
+      <c r="F53">
+        <v>-0.0741148243299459</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01781481212930388</v>
+        <v>0.02052915067285762</v>
       </c>
       <c r="C54">
-        <v>-0.01265422069780029</v>
+        <v>0.01109439622629088</v>
       </c>
       <c r="D54">
-        <v>-0.02733145461841179</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03447833685679127</v>
+      </c>
+      <c r="E54">
+        <v>0.02191599534482823</v>
+      </c>
+      <c r="F54">
+        <v>0.001663581326116136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1158442924955995</v>
+        <v>0.1151063708392803</v>
       </c>
       <c r="C55">
-        <v>-0.01793872251269473</v>
+        <v>0.01812825496072426</v>
       </c>
       <c r="D55">
-        <v>-0.01100926140876296</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.00802694273723911</v>
+      </c>
+      <c r="E55">
+        <v>0.02469084049661184</v>
+      </c>
+      <c r="F55">
+        <v>-0.04680728767272365</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1796904521677141</v>
+        <v>0.1766380287952701</v>
       </c>
       <c r="C56">
-        <v>-0.01766997082533252</v>
+        <v>0.01857843874887848</v>
       </c>
       <c r="D56">
-        <v>-0.009071227421339855</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.002212618393416891</v>
+      </c>
+      <c r="E56">
+        <v>0.03317616453266058</v>
+      </c>
+      <c r="F56">
+        <v>-0.05355177815658518</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.048689647361787</v>
+        <v>0.04506438935740396</v>
       </c>
       <c r="C58">
-        <v>-0.006017350570581304</v>
+        <v>-0.0001809788411754266</v>
       </c>
       <c r="D58">
-        <v>-0.05747514209638323</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07323460746966656</v>
+      </c>
+      <c r="E58">
+        <v>0.03399560130679837</v>
+      </c>
+      <c r="F58">
+        <v>0.03572281047544362</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1619260810520051</v>
+        <v>0.1679582371596722</v>
       </c>
       <c r="C59">
-        <v>-0.01351517961542869</v>
+        <v>0.02280333545154948</v>
       </c>
       <c r="D59">
-        <v>0.2241689118710798</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2184323713017223</v>
+      </c>
+      <c r="E59">
+        <v>-0.04815018338911155</v>
+      </c>
+      <c r="F59">
+        <v>0.03512757317554489</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2376111648896555</v>
+        <v>0.231124835596881</v>
       </c>
       <c r="C60">
-        <v>-0.001759273902130079</v>
+        <v>-0.0014268225779305</v>
       </c>
       <c r="D60">
-        <v>-0.04434533083438518</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04001387021909503</v>
+      </c>
+      <c r="E60">
+        <v>0.007116407561089532</v>
+      </c>
+      <c r="F60">
+        <v>0.0005369606351505591</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.0870469472196831</v>
+        <v>0.07888068697646852</v>
       </c>
       <c r="C61">
-        <v>-0.0182291601500184</v>
+        <v>0.0112571700047705</v>
       </c>
       <c r="D61">
-        <v>-0.09882540720055777</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1169429506480461</v>
+      </c>
+      <c r="E61">
+        <v>0.0379525689397591</v>
+      </c>
+      <c r="F61">
+        <v>-0.01234357848359301</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1703771239904925</v>
+        <v>0.1683930521019446</v>
       </c>
       <c r="C62">
-        <v>-0.02149461956441894</v>
+        <v>0.02111158393654659</v>
       </c>
       <c r="D62">
-        <v>-0.005904152072849992</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005032173165945487</v>
+      </c>
+      <c r="E62">
+        <v>0.03271514306954545</v>
+      </c>
+      <c r="F62">
+        <v>-0.03814694236668819</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04332130729749958</v>
+        <v>0.04583341810300753</v>
       </c>
       <c r="C63">
-        <v>-0.005982764128407469</v>
+        <v>0.001794527845536144</v>
       </c>
       <c r="D63">
-        <v>-0.04403567439104008</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05979582933663997</v>
+      </c>
+      <c r="E63">
+        <v>0.02415044540543785</v>
+      </c>
+      <c r="F63">
+        <v>-0.003342312914573996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.112585992337451</v>
+        <v>0.1106402089762502</v>
       </c>
       <c r="C64">
-        <v>-0.01534863985603132</v>
+        <v>0.01170833348089464</v>
       </c>
       <c r="D64">
-        <v>-0.03320351021063411</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04355530933415397</v>
+      </c>
+      <c r="E64">
+        <v>0.0224874531527199</v>
+      </c>
+      <c r="F64">
+        <v>-0.02611936479830909</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1402488432297961</v>
+        <v>0.1516705528502645</v>
       </c>
       <c r="C65">
-        <v>-0.03372621541488735</v>
+        <v>0.03445948703708344</v>
       </c>
       <c r="D65">
-        <v>0.05099995714099886</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04565226131674459</v>
+      </c>
+      <c r="E65">
+        <v>0.004459374494258482</v>
+      </c>
+      <c r="F65">
+        <v>-0.03460597849980254</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1382327505112715</v>
+        <v>0.1226811851075991</v>
       </c>
       <c r="C66">
-        <v>-0.02295606670249994</v>
+        <v>0.01393033942032049</v>
       </c>
       <c r="D66">
-        <v>-0.1191198691165105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1402425581741975</v>
+      </c>
+      <c r="E66">
+        <v>0.06326790184713488</v>
+      </c>
+      <c r="F66">
+        <v>-0.03200867446945899</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06297813897206825</v>
+        <v>0.05622083729573157</v>
       </c>
       <c r="C67">
-        <v>-0.005619794606707459</v>
+        <v>0.002847082779268193</v>
       </c>
       <c r="D67">
-        <v>-0.05413735618498738</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05626833764376756</v>
+      </c>
+      <c r="E67">
+        <v>0.01699987258130787</v>
+      </c>
+      <c r="F67">
+        <v>0.02926939315774141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1055667568819505</v>
+        <v>0.117000953842915</v>
       </c>
       <c r="C68">
-        <v>-0.02183098396335296</v>
+        <v>0.03313475328900618</v>
       </c>
       <c r="D68">
-        <v>0.2709121886616417</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2613795457286332</v>
+      </c>
+      <c r="E68">
+        <v>-0.08814243435827387</v>
+      </c>
+      <c r="F68">
+        <v>0.002646555057286643</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03991434383560832</v>
+        <v>0.03861347320422723</v>
       </c>
       <c r="C69">
-        <v>-0.00189840963118594</v>
+        <v>0.001243971129253946</v>
       </c>
       <c r="D69">
-        <v>-0.007831812962542428</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008399195712430899</v>
+      </c>
+      <c r="E69">
+        <v>0.02342665561380911</v>
+      </c>
+      <c r="F69">
+        <v>-0.0007854697915393777</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.065994447148292</v>
+        <v>0.06612019803136618</v>
       </c>
       <c r="C70">
-        <v>0.02463843048703695</v>
+        <v>-0.0274004948984315</v>
       </c>
       <c r="D70">
-        <v>0.00681501758906207</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02557395078269662</v>
+      </c>
+      <c r="E70">
+        <v>-0.03016281522890562</v>
+      </c>
+      <c r="F70">
+        <v>0.1755520046963448</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1237752979819121</v>
+        <v>0.1364689623446541</v>
       </c>
       <c r="C71">
-        <v>-0.02545038885489298</v>
+        <v>0.03754098224180594</v>
       </c>
       <c r="D71">
-        <v>0.2862320102926429</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2719983841627435</v>
+      </c>
+      <c r="E71">
+        <v>-0.09845735309362137</v>
+      </c>
+      <c r="F71">
+        <v>-0.003765081430558718</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1381439286375643</v>
+        <v>0.1438052056511132</v>
       </c>
       <c r="C72">
-        <v>-0.02790930265777941</v>
+        <v>0.02759696655210403</v>
       </c>
       <c r="D72">
-        <v>-0.004750859615804835</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.00436190142587714</v>
+      </c>
+      <c r="E72">
+        <v>0.03684175583547745</v>
+      </c>
+      <c r="F72">
+        <v>-0.03108235152477147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2075796687400661</v>
+        <v>0.2042483645455754</v>
       </c>
       <c r="C73">
-        <v>-0.01731740747000927</v>
+        <v>0.01354039192534108</v>
       </c>
       <c r="D73">
-        <v>-0.01144259126746354</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01734357761358121</v>
+      </c>
+      <c r="E73">
+        <v>0.0644901513358072</v>
+      </c>
+      <c r="F73">
+        <v>-0.03909963140541962</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09346712223550301</v>
+        <v>0.09521299630482197</v>
       </c>
       <c r="C74">
-        <v>-0.01406752035688624</v>
+        <v>0.01388291197834014</v>
       </c>
       <c r="D74">
-        <v>-0.02024356611208692</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01630123594569287</v>
+      </c>
+      <c r="E74">
+        <v>0.04372207767653312</v>
+      </c>
+      <c r="F74">
+        <v>-0.05553134206923131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1336125967809655</v>
+        <v>0.1267245927407869</v>
       </c>
       <c r="C75">
-        <v>-0.03035067080791163</v>
+        <v>0.02885663945300668</v>
       </c>
       <c r="D75">
-        <v>-0.02958841717728974</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02912485014759203</v>
+      </c>
+      <c r="E75">
+        <v>0.05702723113608461</v>
+      </c>
+      <c r="F75">
+        <v>-0.02355274248446369</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08343324768247007</v>
+        <v>0.0902135945634262</v>
       </c>
       <c r="C77">
-        <v>-0.01570564866573805</v>
+        <v>0.008267559570316359</v>
       </c>
       <c r="D77">
-        <v>-0.09645887406598289</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1141784766846105</v>
+      </c>
+      <c r="E77">
+        <v>0.04409914356925333</v>
+      </c>
+      <c r="F77">
+        <v>-0.03252846896942044</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1035033304525778</v>
+        <v>0.1018172538113845</v>
       </c>
       <c r="C78">
-        <v>-0.04603915782848163</v>
+        <v>0.03937268316728086</v>
       </c>
       <c r="D78">
-        <v>-0.104868424969319</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1149978615054515</v>
+      </c>
+      <c r="E78">
+        <v>0.07731440105508344</v>
+      </c>
+      <c r="F78">
+        <v>-0.053588900823279</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1641250957366536</v>
+        <v>0.1628946032422589</v>
       </c>
       <c r="C79">
-        <v>-0.02463673666730051</v>
+        <v>0.02361060708305179</v>
       </c>
       <c r="D79">
-        <v>-0.01271490238135216</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01276810788170044</v>
+      </c>
+      <c r="E79">
+        <v>0.04458274325805932</v>
+      </c>
+      <c r="F79">
+        <v>-0.01271570877327273</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08520050662212006</v>
+        <v>0.08242956996990798</v>
       </c>
       <c r="C80">
-        <v>-0.002359188474245727</v>
+        <v>-0.0003899984126094897</v>
       </c>
       <c r="D80">
-        <v>-0.04630981100784461</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05508241248534786</v>
+      </c>
+      <c r="E80">
+        <v>0.03498474300885916</v>
+      </c>
+      <c r="F80">
+        <v>0.01917905584199987</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1204298482306011</v>
+        <v>0.1179089037384692</v>
       </c>
       <c r="C81">
-        <v>-0.03241563297349078</v>
+        <v>0.03245030411407997</v>
       </c>
       <c r="D81">
-        <v>-0.02303110675440637</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01402698272012709</v>
+      </c>
+      <c r="E81">
+        <v>0.05530358105227391</v>
+      </c>
+      <c r="F81">
+        <v>-0.02030642974428001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1657272478005477</v>
+        <v>0.16529065162869</v>
       </c>
       <c r="C82">
-        <v>-0.02549078702341007</v>
+        <v>0.02599007338315636</v>
       </c>
       <c r="D82">
-        <v>-0.01402220276816753</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.002953064447881693</v>
+      </c>
+      <c r="E82">
+        <v>0.02593696286847949</v>
+      </c>
+      <c r="F82">
+        <v>-0.08138425158688815</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06553322272311074</v>
+        <v>0.05819421119129273</v>
       </c>
       <c r="C83">
-        <v>-0.006311202003186723</v>
+        <v>0.003035973815116413</v>
       </c>
       <c r="D83">
-        <v>-0.03683064624506939</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04966641793654165</v>
+      </c>
+      <c r="E83">
+        <v>0.002955499045272788</v>
+      </c>
+      <c r="F83">
+        <v>0.02846447398260632</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.0635807382279503</v>
+        <v>0.05776322425367546</v>
       </c>
       <c r="C84">
-        <v>-0.01471879990847664</v>
+        <v>0.01093077358190997</v>
       </c>
       <c r="D84">
-        <v>-0.06482318397900103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07224919898425404</v>
+      </c>
+      <c r="E84">
+        <v>0.01429146505849243</v>
+      </c>
+      <c r="F84">
+        <v>-0.01395664258258227</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1375789289511667</v>
+        <v>0.1345320623203897</v>
       </c>
       <c r="C85">
-        <v>-0.02891207612932605</v>
+        <v>0.02879118182783417</v>
       </c>
       <c r="D85">
-        <v>-0.01623129147862636</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009111632587083484</v>
+      </c>
+      <c r="E85">
+        <v>0.03586260639324348</v>
+      </c>
+      <c r="F85">
+        <v>-0.04721180120111114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1000867701706804</v>
+        <v>0.09245608690986187</v>
       </c>
       <c r="C86">
-        <v>0.003270705547603877</v>
+        <v>-0.006358358111878543</v>
       </c>
       <c r="D86">
-        <v>-0.00316443274624917</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04970889238466536</v>
+      </c>
+      <c r="E86">
+        <v>0.2393462062703017</v>
+      </c>
+      <c r="F86">
+        <v>0.9046864401592395</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09961700000067335</v>
+        <v>0.09313055816211341</v>
       </c>
       <c r="C87">
-        <v>-0.02858376982229291</v>
+        <v>0.01933760751109104</v>
       </c>
       <c r="D87">
-        <v>-0.06786587169111968</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09545314438924712</v>
+      </c>
+      <c r="E87">
+        <v>-0.05224957394169183</v>
+      </c>
+      <c r="F87">
+        <v>-0.04758047778856254</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06023280374261633</v>
+        <v>0.06003703473307638</v>
       </c>
       <c r="C88">
-        <v>-0.005284894842743072</v>
+        <v>0.002340515862129364</v>
       </c>
       <c r="D88">
-        <v>-0.05423038747153231</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04951487531903224</v>
+      </c>
+      <c r="E88">
+        <v>0.02406520521973229</v>
+      </c>
+      <c r="F88">
+        <v>-0.01522574475417908</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1170478713081895</v>
+        <v>0.128135109902281</v>
       </c>
       <c r="C89">
-        <v>-0.002876720323417088</v>
+        <v>0.01273623805898688</v>
       </c>
       <c r="D89">
-        <v>0.2588415155143429</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.244976356959888</v>
+      </c>
+      <c r="E89">
+        <v>-0.09162424832107824</v>
+      </c>
+      <c r="F89">
+        <v>0.01140971176052264</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1353080802295959</v>
+        <v>0.1513193871001209</v>
       </c>
       <c r="C90">
-        <v>-0.02219541132954306</v>
+        <v>0.03422224892653911</v>
       </c>
       <c r="D90">
-        <v>0.2738355689643954</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2687822143439239</v>
+      </c>
+      <c r="E90">
+        <v>-0.1141494064084707</v>
+      </c>
+      <c r="F90">
+        <v>0.01277265490997461</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1201350754194702</v>
+        <v>0.1212188898333922</v>
       </c>
       <c r="C91">
-        <v>-0.01965899276207829</v>
+        <v>0.02046027759158309</v>
       </c>
       <c r="D91">
-        <v>0.006851529019834377</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01643458106918273</v>
+      </c>
+      <c r="E91">
+        <v>0.05492939118105124</v>
+      </c>
+      <c r="F91">
+        <v>-3.609344844768547e-05</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1368191546434293</v>
+        <v>0.1476684715549198</v>
       </c>
       <c r="C92">
-        <v>-0.01220756798725157</v>
+        <v>0.02474636923084285</v>
       </c>
       <c r="D92">
-        <v>0.3059665410437474</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2894830537855578</v>
+      </c>
+      <c r="E92">
+        <v>-0.1025141511662929</v>
+      </c>
+      <c r="F92">
+        <v>0.02085841820205197</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1381925299201415</v>
+        <v>0.1521006960659345</v>
       </c>
       <c r="C93">
-        <v>-0.01775728095373655</v>
+        <v>0.02912286421779229</v>
       </c>
       <c r="D93">
-        <v>0.269894428422484</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2649931546698541</v>
+      </c>
+      <c r="E93">
+        <v>-0.07653711946864239</v>
+      </c>
+      <c r="F93">
+        <v>0.001834707222008779</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1342830463022268</v>
+        <v>0.127579636550975</v>
       </c>
       <c r="C94">
-        <v>-0.02734955782154742</v>
+        <v>0.02521128456476905</v>
       </c>
       <c r="D94">
-        <v>-0.04349497422675426</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04075869331064776</v>
+      </c>
+      <c r="E94">
+        <v>0.05706154168779286</v>
+      </c>
+      <c r="F94">
+        <v>-0.0363787704427263</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.125313246385146</v>
+        <v>0.1259054712151581</v>
       </c>
       <c r="C95">
-        <v>-0.01022897778584573</v>
+        <v>0.003165496234939657</v>
       </c>
       <c r="D95">
-        <v>-0.0794210576685616</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09846221050638684</v>
+      </c>
+      <c r="E95">
+        <v>0.05288741760804496</v>
+      </c>
+      <c r="F95">
+        <v>0.005348554836033921</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1203914187173092</v>
+        <v>0.112225835439463</v>
       </c>
       <c r="C96">
-        <v>0.9869500532974702</v>
+        <v>-0.9868303838071437</v>
       </c>
       <c r="D96">
-        <v>0.01040687074801984</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05075977165117218</v>
+      </c>
+      <c r="E96">
+        <v>0.05206014433402247</v>
+      </c>
+      <c r="F96">
+        <v>-0.04278737542333513</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1936006640843351</v>
+        <v>0.1940694680245043</v>
       </c>
       <c r="C97">
-        <v>0.005742075645377556</v>
+        <v>-0.005833123237725067</v>
       </c>
       <c r="D97">
-        <v>0.01350886141805359</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02066216926425712</v>
+      </c>
+      <c r="E97">
+        <v>0.02137656386876831</v>
+      </c>
+      <c r="F97">
+        <v>0.09175396181981287</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.199929236396653</v>
+        <v>0.2073302698490752</v>
       </c>
       <c r="C98">
-        <v>-0.01196493306347909</v>
+        <v>0.007512022661205652</v>
       </c>
       <c r="D98">
-        <v>-0.01176575213159744</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01493410929670646</v>
+      </c>
+      <c r="E98">
+        <v>-0.07363151420202545</v>
+      </c>
+      <c r="F98">
+        <v>0.0892257010820888</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05589917533150051</v>
+        <v>0.05528311051246147</v>
       </c>
       <c r="C99">
-        <v>0.001860704347448225</v>
+        <v>-0.004257847043189551</v>
       </c>
       <c r="D99">
-        <v>-0.02442029378790167</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03838292197019767</v>
+      </c>
+      <c r="E99">
+        <v>0.02151787958707075</v>
+      </c>
+      <c r="F99">
+        <v>-0.003105201352199992</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1417823998940907</v>
+        <v>0.1286262205803952</v>
       </c>
       <c r="C100">
-        <v>0.03729314936169301</v>
+        <v>-0.05226671699924397</v>
       </c>
       <c r="D100">
-        <v>-0.4161481156964482</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3517002513394004</v>
+      </c>
+      <c r="E100">
+        <v>-0.882667442453106</v>
+      </c>
+      <c r="F100">
+        <v>0.1663224024239423</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02549081131409463</v>
+        <v>0.02859965858268817</v>
       </c>
       <c r="C101">
-        <v>-0.009695219361960038</v>
+        <v>0.008774917442504465</v>
       </c>
       <c r="D101">
-        <v>-0.02346804932962686</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03039514870869883</v>
+      </c>
+      <c r="E101">
+        <v>0.01266376314177247</v>
+      </c>
+      <c r="F101">
+        <v>0.01444055293392509</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
